--- a/dist/document/dest/2020/10/chi lam/186_ltb.xlsx
+++ b/dist/document/dest/2020/10/chi lam/186_ltb.xlsx
@@ -16,13 +16,13 @@
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Lương Thanh Bửu</t>
+    <t>TDV: chi lam</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 186</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,10 +46,10 @@
     <t>CK</t>
   </si>
   <si>
-    <t>BS One</t>
-  </si>
-  <si>
-    <t>Cefass</t>
+    <t>BS O**</t>
+  </si>
+  <si>
+    <t>Cefa**</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -584,19 +584,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>5036</v>
+        <v>1590</v>
       </c>
       <c r="D6" s="10">
         <v>4000</v>
       </c>
       <c r="E6" s="10">
-        <v>20144000</v>
+        <v>6360000</v>
       </c>
       <c r="F6" s="10">
         <v>45</v>
       </c>
       <c r="G6" s="10">
-        <v>9064800</v>
+        <v>2862000</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -607,19 +607,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="D7" s="10">
         <v>9000</v>
       </c>
       <c r="E7" s="10">
-        <v>3042000</v>
+        <v>702000</v>
       </c>
       <c r="F7" s="10">
         <v>50</v>
       </c>
       <c r="G7" s="10">
-        <v>1521000</v>
+        <v>351000</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -628,15 +628,15 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="11">
-        <v>5374</v>
+        <v>1668</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11">
-        <v>23186000</v>
+        <v>7062000</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11">
-        <v>10585800</v>
+        <v>3213000</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
